--- a/target/test-classes/ULKELER.xlsx
+++ b/target/test-classes/ULKELER.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>ULKELER</t>
   </si>
@@ -526,28 +526,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
